--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.43171336707001</v>
+        <v>21.261437</v>
       </c>
       <c r="N2">
-        <v>7.43171336707001</v>
+        <v>63.784311</v>
       </c>
       <c r="O2">
-        <v>0.6441644726970036</v>
+        <v>0.8363123822876132</v>
       </c>
       <c r="P2">
-        <v>0.6441644726970036</v>
+        <v>0.8363123822876132</v>
       </c>
       <c r="Q2">
-        <v>189.8636408909634</v>
+        <v>574.8859893807763</v>
       </c>
       <c r="R2">
-        <v>189.8636408909634</v>
+        <v>5173.973904426987</v>
       </c>
       <c r="S2">
-        <v>0.04384139769178058</v>
+        <v>0.05934630074621392</v>
       </c>
       <c r="T2">
-        <v>0.04384139769178058</v>
+        <v>0.05934630074621393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.30060417907834</v>
+        <v>3.321607</v>
       </c>
       <c r="N3">
-        <v>3.30060417907834</v>
+        <v>9.964821000000001</v>
       </c>
       <c r="O3">
-        <v>0.2860890679689607</v>
+        <v>0.1306544361603222</v>
       </c>
       <c r="P3">
-        <v>0.2860890679689607</v>
+        <v>0.1306544361603222</v>
       </c>
       <c r="Q3">
-        <v>84.32304848522551</v>
+        <v>89.81261833473967</v>
       </c>
       <c r="R3">
-        <v>84.32304848522551</v>
+        <v>808.313565012657</v>
       </c>
       <c r="S3">
-        <v>0.01947102818568155</v>
+        <v>0.009271484706453725</v>
       </c>
       <c r="T3">
-        <v>0.01947102818568155</v>
+        <v>0.009271484706453727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.804663585323757</v>
+        <v>0.8397973333333333</v>
       </c>
       <c r="N4">
-        <v>0.804663585323757</v>
+        <v>2.519392</v>
       </c>
       <c r="O4">
-        <v>0.06974645933403575</v>
+        <v>0.03303318155206465</v>
       </c>
       <c r="P4">
-        <v>0.06974645933403575</v>
+        <v>0.03303318155206465</v>
       </c>
       <c r="Q4">
-        <v>20.55735339294682</v>
+        <v>22.70720087511822</v>
       </c>
       <c r="R4">
-        <v>20.55735339294682</v>
+        <v>204.364807876064</v>
       </c>
       <c r="S4">
-        <v>0.004746896780033002</v>
+        <v>0.002344096737669634</v>
       </c>
       <c r="T4">
-        <v>0.004746896780033002</v>
+        <v>0.002344096737669635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.43171336707001</v>
+        <v>21.261437</v>
       </c>
       <c r="N5">
-        <v>7.43171336707001</v>
+        <v>63.784311</v>
       </c>
       <c r="O5">
-        <v>0.6441644726970036</v>
+        <v>0.8363123822876132</v>
       </c>
       <c r="P5">
-        <v>0.6441644726970036</v>
+        <v>0.8363123822876132</v>
       </c>
       <c r="Q5">
-        <v>2537.909159599834</v>
+        <v>7347.242048714023</v>
       </c>
       <c r="R5">
-        <v>2537.909159599834</v>
+        <v>66125.1784384262</v>
       </c>
       <c r="S5">
-        <v>0.5860283951655993</v>
+        <v>0.7584662773707037</v>
       </c>
       <c r="T5">
-        <v>0.5860283951655993</v>
+        <v>0.7584662773707038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.30060417907834</v>
+        <v>3.321607</v>
       </c>
       <c r="N6">
-        <v>3.30060417907834</v>
+        <v>9.964821000000001</v>
       </c>
       <c r="O6">
-        <v>0.2860890679689607</v>
+        <v>0.1306544361603222</v>
       </c>
       <c r="P6">
-        <v>0.2860890679689607</v>
+        <v>0.1306544361603222</v>
       </c>
       <c r="Q6">
-        <v>1127.14702041838</v>
+        <v>1147.836367772453</v>
       </c>
       <c r="R6">
-        <v>1127.14702041838</v>
+        <v>10330.52730995208</v>
       </c>
       <c r="S6">
-        <v>0.2602694257172</v>
+        <v>0.1184927856089159</v>
       </c>
       <c r="T6">
-        <v>0.2602694257172</v>
+        <v>0.1184927856089159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.804663585323757</v>
+        <v>0.8397973333333333</v>
       </c>
       <c r="N7">
-        <v>0.804663585323757</v>
+        <v>2.519392</v>
       </c>
       <c r="O7">
-        <v>0.06974645933403575</v>
+        <v>0.03303318155206465</v>
       </c>
       <c r="P7">
-        <v>0.06974645933403575</v>
+        <v>0.03303318155206465</v>
       </c>
       <c r="Q7">
-        <v>274.7903454724786</v>
+        <v>290.2058915333226</v>
       </c>
       <c r="R7">
-        <v>274.7903454724786</v>
+        <v>2611.853023799903</v>
       </c>
       <c r="S7">
-        <v>0.06345181605697367</v>
+        <v>0.02995836815541571</v>
       </c>
       <c r="T7">
-        <v>0.06345181605697367</v>
+        <v>0.02995836815541571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.43171336707001</v>
+        <v>21.261437</v>
       </c>
       <c r="N8">
-        <v>7.43171336707001</v>
+        <v>63.784311</v>
       </c>
       <c r="O8">
-        <v>0.6441644726970036</v>
+        <v>0.8363123822876132</v>
       </c>
       <c r="P8">
-        <v>0.6441644726970036</v>
+        <v>0.8363123822876132</v>
       </c>
       <c r="Q8">
-        <v>61.90587213487591</v>
+        <v>179.2070961507974</v>
       </c>
       <c r="R8">
-        <v>61.90587213487591</v>
+        <v>1612.863865357176</v>
       </c>
       <c r="S8">
-        <v>0.01429467983962372</v>
+        <v>0.0184998041706955</v>
       </c>
       <c r="T8">
-        <v>0.01429467983962372</v>
+        <v>0.01849980417069551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.30060417907834</v>
+        <v>3.321607</v>
       </c>
       <c r="N9">
-        <v>3.30060417907834</v>
+        <v>9.964821000000001</v>
       </c>
       <c r="O9">
-        <v>0.2860890679689607</v>
+        <v>0.1306544361603222</v>
       </c>
       <c r="P9">
-        <v>0.2860890679689607</v>
+        <v>0.1306544361603222</v>
       </c>
       <c r="Q9">
-        <v>27.49389947992809</v>
+        <v>27.99695735637067</v>
       </c>
       <c r="R9">
-        <v>27.49389947992809</v>
+        <v>251.972616207336</v>
       </c>
       <c r="S9">
-        <v>0.006348614066079128</v>
+        <v>0.002890165844952595</v>
       </c>
       <c r="T9">
-        <v>0.006348614066079128</v>
+        <v>0.002890165844952596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.804663585323757</v>
+        <v>0.8397973333333333</v>
       </c>
       <c r="N10">
-        <v>0.804663585323757</v>
+        <v>2.519392</v>
       </c>
       <c r="O10">
-        <v>0.06974645933403575</v>
+        <v>0.03303318155206465</v>
       </c>
       <c r="P10">
-        <v>0.06974645933403575</v>
+        <v>0.03303318155206465</v>
       </c>
       <c r="Q10">
-        <v>6.702815160413337</v>
+        <v>7.078432255630223</v>
       </c>
       <c r="R10">
-        <v>6.702815160413337</v>
+        <v>63.705890300672</v>
       </c>
       <c r="S10">
-        <v>0.001547746497029087</v>
+        <v>0.000730716658979304</v>
       </c>
       <c r="T10">
-        <v>0.001547746497029087</v>
+        <v>0.0007307166589793042</v>
       </c>
     </row>
   </sheetData>
